--- a/_MUT_USERBIN/SWF.xlsx
+++ b/_MUT_USERBIN/SWF.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Grdbldr\MUT_Examples\_MUT_USERBIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA38AFA8-3338-442E-918F-C27888FBE44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0C343D-8B17-402A-8EEB-8F73B935C60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E23FC164-8C97-4E6B-B79D-1AAD7201784F}"/>
   </bookViews>
   <sheets>
-    <sheet name="qrySWF" sheetId="1" r:id="rId1"/>
+    <sheet name="SWF" sheetId="1" r:id="rId1"/>
     <sheet name="Options" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -71,12 +71,6 @@
     <t>Panday channel</t>
   </si>
   <si>
-    <t>3_SWF</t>
-  </si>
-  <si>
-    <t>3_SWF_Year</t>
-  </si>
-  <si>
     <t>YEARS</t>
   </si>
   <si>
@@ -117,6 +111,12 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>2D Hillslope 100 m length</t>
+  </si>
+  <si>
+    <t>2D Hillslope</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,16 +1077,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>0.03</v>
+        <v>31</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.6999999999999999E-9</v>
       </c>
       <c r="D2">
-        <v>0.1</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="F2">
         <v>9.9999999999999995E-7</v>
@@ -1098,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>29</v>
@@ -1106,13 +1106,14 @@
     </row>
     <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3">
+        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>0.3</v>
+        <v>5.4800000000000001E-2</v>
       </c>
       <c r="D3">
         <v>0.1</v>
@@ -1138,16 +1139,17 @@
     </row>
     <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4">
+        <f t="shared" ref="A4:A7" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>1.4999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D4">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1165,21 +1167,22 @@
         <v>12</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1197,21 +1200,22 @@
         <v>12</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>5.4800000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D6">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1229,24 +1233,25 @@
         <v>12</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.6999999999999999E-9</v>
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>0.15</v>
       </c>
       <c r="D7">
-        <v>9.9999999999999995E-7</v>
+        <v>0.01</v>
       </c>
       <c r="E7">
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>9.9999999999999995E-7</v>
@@ -1258,14 +1263,14 @@
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="12zn5ThM1dS3T6ir85lsIK7mPSePGPIl21qF7q6tVNAUvNx+pmr27YgFKLlZqIhZRSV5rvnNpmyeF+CdDVndyg==" saltValue="fD3e1BP+TCoTQniQ+nkGjA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eN7UW2kA5SGQZS71UJ6j3jcHQkkyUZzr5MXtMBehmNuveP1U0TJxPP+CGGqW6mYpObnFyTsciuJ/F8OyF2+KdA==" saltValue="K5mU/nH6lqppJnYFPKh3HQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1293,7 +1298,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,24 +1308,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1328,28 +1333,28 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/_MUT_USERBIN/SWF.xlsx
+++ b/_MUT_USERBIN/SWF.xlsx
@@ -5,23 +5,36 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Grdbldr\MUT_Examples\_MUT_USERBIN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\source\repos\MUT_Examples\_MUT_USERBIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0C343D-8B17-402A-8EEB-8F73B935C60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B82B94-8D70-4C74-9164-DBBF13E9C86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E23FC164-8C97-4E6B-B79D-1AAD7201784F}"/>
+    <workbookView xWindow="10635" yWindow="0" windowWidth="18165" windowHeight="16200" xr2:uid="{E23FC164-8C97-4E6B-B79D-1AAD7201784F}"/>
   </bookViews>
   <sheets>
     <sheet name="SWF" sheetId="1" r:id="rId1"/>
     <sheet name="Options" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>SWF ID</t>
   </si>
@@ -117,6 +130,18 @@
   </si>
   <si>
     <t>2D Hillslope</t>
+  </si>
+  <si>
+    <t>Streambed_Calib_USG_V1</t>
+  </si>
+  <si>
+    <t>Streambed_Calib_USG_V2</t>
+  </si>
+  <si>
+    <t>Abdul example calibrated for USG Prism Cell</t>
+  </si>
+  <si>
+    <t>Abdul example calibrated for USG Hexahedra</t>
   </si>
 </sst>
 </file>
@@ -724,9 +749,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -764,7 +789,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -870,7 +895,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1012,7 +1037,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1020,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2938394-FBD0-4DB4-9C44-75AB6C6E6941}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1164,7 @@
     </row>
     <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A7" si="0">A3+1</f>
+        <f t="shared" ref="A4:A9" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1267,6 +1292,72 @@
       </c>
       <c r="J7" s="4" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3.75334E-3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1.2639400000000001E-3</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.19106E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.4990700000000001E-2</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/_MUT_USERBIN/SWF.xlsx
+++ b/_MUT_USERBIN/SWF.xlsx
@@ -1,35 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\source\repos\MUT_Examples\_MUT_USERBIN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Grdbldr\MUT_Examples\_MUT_USERBIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B82B94-8D70-4C74-9164-DBBF13E9C86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6890B08A-37C9-417F-B31A-87154F1B06A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10635" yWindow="0" windowWidth="18165" windowHeight="16200" xr2:uid="{E23FC164-8C97-4E6B-B79D-1AAD7201784F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E23FC164-8C97-4E6B-B79D-1AAD7201784F}"/>
   </bookViews>
   <sheets>
     <sheet name="SWF" sheetId="1" r:id="rId1"/>
     <sheet name="Options" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -674,20 +661,25 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -749,9 +741,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -789,7 +781,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -895,7 +887,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1037,7 +1029,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1048,320 +1040,320 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="57.140625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="57.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6">
         <v>1.6999999999999999E-9</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>0.1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <f t="shared" ref="A4:A9" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>0.03</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>0.1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>0.3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>0.1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>0.01</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>0.15</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>0.01</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>0.01</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>0.1</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="5">
         <v>0</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="5">
         <v>3.75334E-3</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <v>1.2639400000000001E-3</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>0.02</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>0.1</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="5">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="5">
         <v>1.19106E-2</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="5">
         <v>2.4990700000000001E-2</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="5" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eN7UW2kA5SGQZS71UJ6j3jcHQkkyUZzr5MXtMBehmNuveP1U0TJxPP+CGGqW6mYpObnFyTsciuJ/F8OyF2+KdA==" saltValue="K5mU/nH6lqppJnYFPKh3HQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MEfBM7/WNhNqUIXmene80oK39J9jr4jnplm2AMFofupeNwp1DE5d9KwicBEFLQKEfwX/RxAdYTnPtGDing0u4g==" saltValue="LXs+8BV9R697DBB989VDnA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">

--- a/_MUT_USERBIN/SWF.xlsx
+++ b/_MUT_USERBIN/SWF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Grdbldr\MUT_Examples\_MUT_USERBIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6890B08A-37C9-417F-B31A-87154F1B06A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94CB269-DE2F-4FB2-A33F-48A6A98E148F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E23FC164-8C97-4E6B-B79D-1AAD7201784F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{E23FC164-8C97-4E6B-B79D-1AAD7201784F}"/>
   </bookViews>
   <sheets>
     <sheet name="SWF" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>SWF ID</t>
   </si>
@@ -129,6 +129,21 @@
   </si>
   <si>
     <t>Abdul example calibrated for USG Hexahedra</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>Copied from super_slab_case.oprops</t>
+  </si>
+  <si>
+    <t>Copied from digiam.oprops</t>
+  </si>
+  <si>
+    <t>Digiammarco Slope</t>
+  </si>
+  <si>
+    <t>Digiammarco Channel</t>
   </si>
 </sst>
 </file>
@@ -670,16 +685,18 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1037,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2938394-FBD0-4DB4-9C44-75AB6C6E6941}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,266 +1107,363 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>1.6999999999999999E-9</v>
       </c>
-      <c r="D2" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E2" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F2" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G2" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="D2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3">
         <v>0.1</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G3" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="F3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <f t="shared" ref="A4:A9" si="0">A3+1</f>
+      <c r="A4">
+        <f t="shared" ref="A4:A10" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>0.03</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4">
         <v>0.1</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G4" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="F4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>0.3</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <v>0.1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G5" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="F5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>0.01</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G6" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="F6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H6" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>0.15</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <v>0.01</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G7" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="F7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H7" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>0.01</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <v>0.1</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8">
         <v>3.75334E-3</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8">
         <v>1.2639400000000001E-3</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>0.02</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9">
         <v>0.1</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9">
         <v>1.19106E-2</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9">
         <v>2.4990700000000001E-2</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/_MUT_USERBIN/SWF.xlsx
+++ b/_MUT_USERBIN/SWF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Grdbldr\MUT_Examples\_MUT_USERBIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94CB269-DE2F-4FB2-A33F-48A6A98E148F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BECB2B-5DD7-4761-A1CB-0D4117B2C57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{E23FC164-8C97-4E6B-B79D-1AAD7201784F}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{E23FC164-8C97-4E6B-B79D-1AAD7201784F}"/>
   </bookViews>
   <sheets>
     <sheet name="SWF" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>SWF ID</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Digiammarco Channel</t>
+  </si>
+  <si>
+    <t>Smith-Woolhiser Overland</t>
   </si>
 </sst>
 </file>
@@ -676,27 +679,21 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1054,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2938394-FBD0-4DB4-9C44-75AB6C6E6941}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection sqref="A1:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,399 +1072,431 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="5">
         <v>1.6999999999999999E-9</v>
       </c>
-      <c r="D2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D2" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E2" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F2" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G2" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>0.1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="F3" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G3" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:A10" si="0">A3+1</f>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <f t="shared" ref="A4:A13" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>0.03</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>0.1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G4">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="F4" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G4" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>0.3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>0.1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="F5" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G5" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>0.01</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="F6" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G6" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>0.15</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>0.01</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="F7" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G7" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>0.01</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>0.1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>3.75334E-3</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>1.2639400000000001E-3</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>0.02</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>0.1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>1.19106E-2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>2.4990700000000001E-2</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D10" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>1E-3</v>
       </c>
-      <c r="F10" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G10" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="F10" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G10" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>1E-3</v>
       </c>
-      <c r="F11" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G11" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="F11" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G11" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>0.15</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>0.15</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>1E-3</v>
       </c>
-      <c r="F12" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G12" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="F12" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G12" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="4" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="13" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1.22E-4</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MEfBM7/WNhNqUIXmene80oK39J9jr4jnplm2AMFofupeNwp1DE5d9KwicBEFLQKEfwX/RxAdYTnPtGDing0u4g==" saltValue="LXs+8BV9R697DBB989VDnA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dBhtYTQEXfUrtZMtUJ7YZ5MX0YY+b4YqC7PObx/DQXoNrkkjtBs6VTeVSB7opOsU+ZV6q/scR/1NSy1WDsaldg==" saltValue="ldfOicL9p5Kjbw5g++UUHg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
